--- a/Analysis/calibration/factors_calibration/minions/30_repetitions_arrival_time_20sec/calibration_minion_response_time_arrival20sec.xlsx
+++ b/Analysis/calibration/factors_calibration/minions/30_repetitions_arrival_time_20sec/calibration_minion_response_time_arrival20sec.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -111,11 +111,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,9 +137,15 @@
       <sz val="10"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -246,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,10 +282,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,15 +290,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,10 +303,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,7 +386,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -479,6 +470,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -487,6 +479,91 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Q$3:$Q$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.149249439375523</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.175473130819981</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.248548626394634</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.522381291563763</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.03868264268824</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.62422891907211</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.6263236110635</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>23.3622096357065</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>32.2557430414825</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Q$3:$Q$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.149249439375523</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.175473130819981</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.248548626394634</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.522381291563763</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.03868264268824</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.62422891907211</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.6263236110635</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>23.3622096357065</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>32.2557430414825</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$L$3:$L$11</c:f>
@@ -561,11 +638,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="85788176"/>
-        <c:axId val="24854535"/>
+        <c:axId val="66692624"/>
+        <c:axId val="99872453"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85788176"/>
+        <c:axId val="66692624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,12 +698,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24854535"/>
+        <c:crossAx val="99872453"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24854535"/>
+        <c:axId val="99872453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +768,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85788176"/>
+        <c:crossAx val="66692624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -750,9 +827,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>668520</xdr:colOff>
+      <xdr:colOff>668160</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -760,8 +837,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10296360" y="3368880"/>
-        <a:ext cx="6641280" cy="4114080"/>
+        <a:off x="10308960" y="3368880"/>
+        <a:ext cx="6640920" cy="4113720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -781,11 +858,11 @@
   </sheetPr>
   <dimension ref="B1:U272"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U18" activeCellId="0" sqref="U18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.67"/>
@@ -872,7 +949,7 @@
         <f aca="false">AVERAGE(H3:H32)</f>
         <v>1.81700861246358</v>
       </c>
-      <c r="N3" s="7" t="n">
+      <c r="N3" s="6" t="n">
         <f aca="false">AVERAGE(G$3:G$32)</f>
         <v>108.8</v>
       </c>
@@ -880,11 +957,11 @@
         <f aca="false">_xlfn.STDEV.S(H3:H32)</f>
         <v>0.41708564690875</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="7" t="n">
         <f aca="false">CONFIDENCE(0.05,P3,COUNT(D3:D32))</f>
         <v>0.149249439375523</v>
       </c>
-      <c r="S3" s="9"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
@@ -914,19 +991,19 @@
       <c r="L4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="7" t="n">
+      <c r="M4" s="6" t="n">
         <f aca="false">AVERAGE($H33:$H62)</f>
         <v>3.1329061934814</v>
       </c>
-      <c r="N4" s="7" t="n">
+      <c r="N4" s="6" t="n">
         <f aca="false">AVERAGE(G$33:G$62)</f>
         <v>108.766666666667</v>
       </c>
-      <c r="P4" s="7" t="n">
+      <c r="P4" s="6" t="n">
         <f aca="false">_xlfn.STDEV.S($H33:$H62)</f>
         <v>0.490369173843328</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="7" t="n">
         <f aca="false">CONFIDENCE(0.05,P4,COUNT(D4:D33))</f>
         <v>0.175473130819981</v>
       </c>
@@ -956,22 +1033,22 @@
       <c r="I5" s="0" t="n">
         <v>4.32515204844037</v>
       </c>
-      <c r="L5" s="10" t="n">
+      <c r="L5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <f aca="false">AVERAGE($H63:$H91)</f>
         <v>4.58632607145161</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <f aca="false">AVERAGE(G$63:G$92)</f>
         <v>108.7</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <f aca="false">_xlfn.STDEV.S($H63:$H91)</f>
         <v>0.694582606553417</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="7" t="n">
         <f aca="false">CONFIDENCE(0.05,P5,COUNT(D5:D34))</f>
         <v>0.248548626394634</v>
       </c>
@@ -1001,14 +1078,14 @@
       <c r="I6" s="0" t="n">
         <v>2.41284639453542</v>
       </c>
-      <c r="L6" s="10" t="n">
+      <c r="L6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="M6" s="6" t="n">
         <f aca="false">AVERAGE($H93:$H122)</f>
         <v>8.12224457003222</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="6" t="n">
         <f aca="false">AVERAGE(G$93:G$122)</f>
         <v>108.766666666667</v>
       </c>
@@ -1016,7 +1093,7 @@
         <f aca="false">_xlfn.STDEV.S($H93:$H122)</f>
         <v>1.45982282973072</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="7" t="n">
         <f aca="false">CONFIDENCE(0.05,P6,COUNT(D6:D35))</f>
         <v>0.522381291563763</v>
       </c>
@@ -1046,14 +1123,14 @@
       <c r="I7" s="0" t="n">
         <v>1.9216911348074</v>
       </c>
-      <c r="L7" s="10" t="n">
+      <c r="L7" s="5" t="n">
         <v>7</v>
       </c>
       <c r="M7" s="6" t="n">
         <f aca="false">AVERAGE($H123:$H152)</f>
         <v>13.2140096210674</v>
       </c>
-      <c r="N7" s="7" t="n">
+      <c r="N7" s="6" t="n">
         <f aca="false">AVERAGE(G$123:G$152)</f>
         <v>108.866666666667</v>
       </c>
@@ -1061,7 +1138,7 @@
         <f aca="false">_xlfn.STDEV.S($H123:$H152)</f>
         <v>2.90265493640146</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="7" t="n">
         <f aca="false">CONFIDENCE(0.05,P7,COUNT(D7:D36))</f>
         <v>1.03868264268824</v>
       </c>
@@ -1091,14 +1168,14 @@
       <c r="I8" s="0" t="n">
         <v>3.50484046327594</v>
       </c>
-      <c r="L8" s="10" t="n">
+      <c r="L8" s="5" t="n">
         <v>10</v>
       </c>
       <c r="M8" s="6" t="n">
         <f aca="false">AVERAGE($H153:$H182)</f>
         <v>29.444981084158</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="6" t="n">
         <f aca="false">AVERAGE(G$153:G$182)</f>
         <v>108.233333333333</v>
       </c>
@@ -1106,7 +1183,7 @@
         <f aca="false">_xlfn.STDEV.S($H153:$H182)</f>
         <v>10.128104129445</v>
       </c>
-      <c r="Q8" s="8" t="n">
+      <c r="Q8" s="7" t="n">
         <f aca="false">CONFIDENCE(0.05,P8,COUNT(D8:D37))</f>
         <v>3.62422891907211</v>
       </c>
@@ -1136,14 +1213,14 @@
       <c r="I9" s="0" t="n">
         <v>2.12931418537915</v>
       </c>
-      <c r="L9" s="10" t="n">
+      <c r="L9" s="5" t="n">
         <v>12</v>
       </c>
       <c r="M9" s="6" t="n">
         <f aca="false">AVERAGE($H183:$H212)</f>
         <v>56.1969012586861</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <f aca="false">AVERAGE(G$3:G$32)</f>
         <v>108.8</v>
       </c>
@@ -1151,7 +1228,7 @@
         <f aca="false">_xlfn.STDEV.S($H183:$H212)</f>
         <v>32.4903914197627</v>
       </c>
-      <c r="Q9" s="8" t="n">
+      <c r="Q9" s="7" t="n">
         <f aca="false">CONFIDENCE(0.05,P9,COUNT(D9:D38))</f>
         <v>11.6263236110635</v>
       </c>
@@ -1181,14 +1258,14 @@
       <c r="I10" s="0" t="n">
         <v>2.29663302400531</v>
       </c>
-      <c r="L10" s="10" t="n">
+      <c r="L10" s="5" t="n">
         <v>15</v>
       </c>
       <c r="M10" s="6" t="n">
         <f aca="false">AVERAGE($H213:$H242)</f>
         <v>122.057356835627</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="N10" s="6" t="n">
         <f aca="false">AVERAGE(G$213:G$242)</f>
         <v>94.5</v>
       </c>
@@ -1196,7 +1273,7 @@
         <f aca="false">_xlfn.STDEV.S($H213:$H242)</f>
         <v>65.2869609420087</v>
       </c>
-      <c r="Q10" s="8" t="n">
+      <c r="Q10" s="7" t="n">
         <f aca="false">CONFIDENCE(0.05,P10,COUNT(D10:D39))</f>
         <v>23.3622096357065</v>
       </c>
@@ -1226,23 +1303,23 @@
       <c r="I11" s="0" t="n">
         <v>2.55825173844965</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="10" t="n">
         <f aca="false">AVERAGE($H243:$H272)</f>
         <v>242.274102821574</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="10" t="n">
         <f aca="false">AVERAGE(G$243:G$272)</f>
         <v>75.5333333333333</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="12" t="n">
+      <c r="O11" s="11"/>
+      <c r="P11" s="10" t="n">
         <f aca="false">_xlfn.STDEV.S($H243:$H272)</f>
         <v>90.1404220295213</v>
       </c>
-      <c r="Q11" s="15" t="n">
+      <c r="Q11" s="12" t="n">
         <f aca="false">CONFIDENCE(0.05,P11,COUNT(D11:D40))</f>
         <v>32.2557430414825</v>
       </c>
@@ -1272,11 +1349,11 @@
       <c r="I12" s="0" t="n">
         <v>2.26624217620887</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
+      <c r="N12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
@@ -1303,12 +1380,12 @@
       <c r="I13" s="0" t="n">
         <v>1.3675832139847</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
@@ -1439,10 +1516,10 @@
       <c r="I18" s="0" t="n">
         <v>1.17630323255889</v>
       </c>
-      <c r="T18" s="18" t="s">
+      <c r="T18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="U18" s="18" t="s">
+      <c r="U18" s="14" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Analysis/calibration/factors_calibration/minions/30_repetitions_arrival_time_20sec/calibration_minion_response_time_arrival20sec.xlsx
+++ b/Analysis/calibration/factors_calibration/minions/30_repetitions_arrival_time_20sec/calibration_minion_response_time_arrival20sec.xlsx
@@ -368,7 +368,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -408,10 +408,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.113682040711157"/>
-          <c:y val="0.132753309466323"/>
-          <c:w val="0.857304818345787"/>
-          <c:h val="0.668137540587794"/>
+          <c:x val="0.113692561302287"/>
+          <c:y val="0.132711680959121"/>
+          <c:w val="0.857253245415207"/>
+          <c:h val="0.668054283573391"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1076,11 +1076,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25750518"/>
-        <c:axId val="91330357"/>
+        <c:axId val="45456364"/>
+        <c:axId val="12656170"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25750518"/>
+        <c:axId val="45456364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1138,15 +1138,17 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91330357"/>
+        <c:crossAx val="12656170"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91330357"/>
+        <c:axId val="12656170"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="420"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1209,8 +1211,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25750518"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="45456364"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1268,9 +1270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>112320</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1278,8 +1280,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="38121480" y="2684520"/>
-        <a:ext cx="6985800" cy="4323960"/>
+        <a:off x="38130480" y="2684520"/>
+        <a:ext cx="6987960" cy="4323600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1299,11 +1301,11 @@
   </sheetPr>
   <dimension ref="B1:AB320"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V6" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH44" activeCellId="0" sqref="AH44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.96"/>
